--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N2">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O2">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P2">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q2">
-        <v>0.4268484397706667</v>
+        <v>0.2891646933668889</v>
       </c>
       <c r="R2">
-        <v>3.841635957936</v>
+        <v>2.602482240302</v>
       </c>
       <c r="S2">
-        <v>0.007534855392901962</v>
+        <v>0.002701672095932764</v>
       </c>
       <c r="T2">
-        <v>0.007534855392901962</v>
+        <v>0.002701672095932764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N3">
         <v>0.27506</v>
       </c>
       <c r="O3">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P3">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q3">
-        <v>0.006291905813333333</v>
+        <v>0.002158823691111111</v>
       </c>
       <c r="R3">
-        <v>0.05662715232</v>
+        <v>0.01942941322</v>
       </c>
       <c r="S3">
-        <v>0.000111066589524603</v>
+        <v>2.016993727139895E-05</v>
       </c>
       <c r="T3">
-        <v>0.000111066589524603</v>
+        <v>2.016993727139895E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N4">
         <v>1.277981</v>
       </c>
       <c r="O4">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P4">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q4">
-        <v>0.02923338938133333</v>
+        <v>0.01003030487744444</v>
       </c>
       <c r="R4">
-        <v>0.2631005044319999</v>
+        <v>0.09027274389699999</v>
       </c>
       <c r="S4">
-        <v>0.0005160364689422005</v>
+        <v>9.371335928175562E-05</v>
       </c>
       <c r="T4">
-        <v>0.0005160364689422006</v>
+        <v>9.371335928175561E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N5">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O5">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P5">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q5">
-        <v>51.33266539854056</v>
+        <v>101.3515557097589</v>
       </c>
       <c r="R5">
-        <v>461.993988586865</v>
+        <v>912.16400138783</v>
       </c>
       <c r="S5">
-        <v>0.9061394506163202</v>
+        <v>0.9469298161965181</v>
       </c>
       <c r="T5">
-        <v>0.9061394506163201</v>
+        <v>0.9469298161965179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N6">
         <v>0.27506</v>
       </c>
       <c r="O6">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P6">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q6">
-        <v>0.7566627068111113</v>
+        <v>0.756662706811111</v>
       </c>
       <c r="R6">
         <v>6.8099643613</v>
       </c>
       <c r="S6">
-        <v>0.01335683475869483</v>
+        <v>0.007069516327260623</v>
       </c>
       <c r="T6">
-        <v>0.01335683475869483</v>
+        <v>0.007069516327260623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N7">
         <v>1.277981</v>
       </c>
       <c r="O7">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P7">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q7">
-        <v>3.515598642889445</v>
+        <v>3.515598642889444</v>
       </c>
       <c r="R7">
         <v>31.640387786005</v>
       </c>
       <c r="S7">
-        <v>0.06205839104832245</v>
+        <v>0.03284631551453813</v>
       </c>
       <c r="T7">
-        <v>0.06205839104832246</v>
+        <v>0.03284631551453813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N8">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O8">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P8">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q8">
-        <v>0.5377922940281111</v>
+        <v>1.061820679391778</v>
       </c>
       <c r="R8">
-        <v>4.840130646253</v>
+        <v>9.556386114525999</v>
       </c>
       <c r="S8">
-        <v>0.009493269248204242</v>
+        <v>0.009920613982971192</v>
       </c>
       <c r="T8">
-        <v>0.009493269248204242</v>
+        <v>0.009920613982971192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N9">
         <v>0.27506</v>
       </c>
       <c r="O9">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P9">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q9">
-        <v>0.007927259762222222</v>
+        <v>0.00792725976222222</v>
       </c>
       <c r="R9">
-        <v>0.07134533786</v>
+        <v>0.07134533785999998</v>
       </c>
       <c r="S9">
-        <v>0.0001399343429775834</v>
+        <v>7.406456247282202E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001399343429775834</v>
+        <v>7.406456247282204E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N10">
         <v>1.277981</v>
       </c>
       <c r="O10">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P10">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q10">
-        <v>0.03683155441788889</v>
+        <v>0.03683155441788888</v>
       </c>
       <c r="R10">
-        <v>0.331483989761</v>
+        <v>0.3314839897609999</v>
       </c>
       <c r="S10">
-        <v>0.0006501615341119574</v>
+        <v>0.0003441180237532886</v>
       </c>
       <c r="T10">
-        <v>0.0006501615341119575</v>
+        <v>0.0003441180237532886</v>
       </c>
     </row>
   </sheetData>
